--- a/out/CE/FigA_13.xlsx
+++ b/out/CE/FigA_13.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F238C756-E1B8-46C5-81D7-0203F482195D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.86775000000000002</v>
+        <v>0.86739999999999995</v>
       </c>
       <c r="B1">
-        <v>0.83662000000000003</v>
+        <v>0.87783</v>
       </c>
       <c r="C1">
-        <v>0.85218499999999997</v>
+        <v>0.85838999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0.86970999999999998</v>
+      </c>
+      <c r="E1">
+        <v>0.85963000000000001</v>
+      </c>
+      <c r="F1">
+        <v>0.88061999999999996</v>
+      </c>
+      <c r="G1">
+        <v>0.84813000000000005</v>
+      </c>
+      <c r="H1">
+        <v>0.85050999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.84084000000000003</v>
+      </c>
+      <c r="J1">
+        <v>0.85228000000000004</v>
+      </c>
+      <c r="K1">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="L1">
+        <v>0.85426999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.84711000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.84521000000000002</v>
+      </c>
+      <c r="O1">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="P1">
+        <v>0.87492999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.85665000000000002</v>
+      </c>
+      <c r="R1">
+        <v>0.86067000000000005</v>
+      </c>
+      <c r="S1">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="T1">
+        <v>0.84777000000000002</v>
+      </c>
+      <c r="U1">
+        <v>0.85387000000000002</v>
+      </c>
+      <c r="V1">
+        <v>0.87922</v>
+      </c>
+      <c r="W1">
+        <v>0.88229000000000002</v>
+      </c>
+      <c r="X1">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="Y1">
+        <v>0.85163</v>
+      </c>
+      <c r="Z1">
+        <v>0.87043999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.86743000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.86356999999999995</v>
+      </c>
+      <c r="AC1">
+        <v>0.83652000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.83196999999999999</v>
+      </c>
+      <c r="AE1">
+        <v>0.85045999999999999</v>
+      </c>
+      <c r="AF1">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="AG1">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.86067000000000005</v>
+      </c>
+      <c r="AI1">
+        <v>0.85443000000000002</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83803000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.88295000000000001</v>
+      </c>
+      <c r="AL1">
+        <v>0.84494999999999998</v>
+      </c>
+      <c r="AM1">
+        <v>0.87063999999999997</v>
+      </c>
+      <c r="AN1">
+        <v>0.85848999999999998</v>
+      </c>
+      <c r="AO1">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="AP1">
+        <v>0.88188</v>
+      </c>
+      <c r="AQ1">
+        <v>0.85563999999999996</v>
+      </c>
+      <c r="AR1">
+        <v>0.84872999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="AT1">
+        <v>0.85097</v>
+      </c>
+      <c r="AU1">
+        <v>0.85458000000000001</v>
+      </c>
+      <c r="AV1">
+        <v>0.85982999999999998</v>
+      </c>
+      <c r="AW1">
+        <v>0.85192000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.87082000000000004</v>
+      </c>
+      <c r="AY1">
+        <v>0.83201999999999998</v>
+      </c>
+      <c r="AZ1">
+        <v>0.87105999999999995</v>
+      </c>
+      <c r="BA1">
+        <v>0.80925000000000002</v>
+      </c>
+      <c r="BB1">
+        <v>0.86002000000000001</v>
+      </c>
+      <c r="BC1">
+        <v>0.85321999999999998</v>
+      </c>
+      <c r="BD1">
+        <v>0.87685000000000002</v>
+      </c>
+      <c r="BE1">
+        <v>0.86526999999999998</v>
+      </c>
+      <c r="BF1">
+        <v>0.86968000000000001</v>
+      </c>
+      <c r="BG1">
+        <v>0.8629</v>
+      </c>
+      <c r="BH1">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="BI1">
+        <v>0.84291000000000005</v>
+      </c>
+      <c r="BJ1">
+        <v>0.84562999999999999</v>
+      </c>
+      <c r="BK1">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="BL1">
+        <v>0.85248000000000002</v>
+      </c>
+      <c r="BM1">
+        <v>0.84646999999999994</v>
+      </c>
+      <c r="BN1">
+        <v>0.85121000000000002</v>
+      </c>
+      <c r="BO1">
+        <v>0.85202999999999995</v>
+      </c>
+      <c r="BP1">
+        <v>0.83964000000000005</v>
+      </c>
+      <c r="BQ1">
+        <v>0.85152000000000005</v>
+      </c>
+      <c r="BR1">
+        <v>0.84567999999999999</v>
+      </c>
+      <c r="BS1">
+        <v>0.86158999999999997</v>
+      </c>
+      <c r="BT1">
+        <v>0.81667999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.83313000000000004</v>
+      </c>
+      <c r="BV1">
+        <v>0.83825000000000005</v>
+      </c>
+      <c r="BW1">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="BX1">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="BY1">
+        <v>0.86826999999999999</v>
+      </c>
+      <c r="BZ1">
+        <v>0.87917000000000001</v>
+      </c>
+      <c r="CA1">
+        <v>0.86568999999999996</v>
+      </c>
+      <c r="CB1">
+        <v>0.85018000000000005</v>
+      </c>
+      <c r="CC1">
+        <v>0.86907999999999996</v>
+      </c>
+      <c r="CD1">
+        <v>0.87104999999999999</v>
+      </c>
+      <c r="CE1">
+        <v>0.83777000000000001</v>
+      </c>
+      <c r="CF1">
+        <v>0.83660999999999996</v>
+      </c>
+      <c r="CG1">
+        <v>0.87973000000000001</v>
+      </c>
+      <c r="CH1">
+        <v>0.88714999999999999</v>
+      </c>
+      <c r="CI1">
+        <v>0.86229</v>
+      </c>
+      <c r="CJ1">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="CK1">
+        <v>0.88166999999999995</v>
+      </c>
+      <c r="CL1">
+        <v>0.84926000000000001</v>
+      </c>
+      <c r="CM1">
+        <v>0.86026999999999998</v>
+      </c>
+      <c r="CN1">
+        <v>0.83472999999999997</v>
+      </c>
+      <c r="CO1">
+        <v>0.88022</v>
+      </c>
+      <c r="CP1">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="CQ1">
+        <v>0.86202000000000001</v>
+      </c>
+      <c r="CR1">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="CS1">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="CT1">
+        <v>0.86009000000000002</v>
+      </c>
+      <c r="CU1">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="CV1">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="CW1">
+        <v>0.85682619999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87082000000000004</v>
+        <v>0.87097999999999998</v>
       </c>
       <c r="B2">
-        <v>0.87121000000000004</v>
+        <v>0.86804999999999999</v>
       </c>
       <c r="C2">
-        <v>0.87101500000000009</v>
+        <v>0.87465000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.85009000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.84477000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.87226999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.85831000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.85568999999999995</v>
+      </c>
+      <c r="I2">
+        <v>0.84006000000000003</v>
+      </c>
+      <c r="J2">
+        <v>0.83681000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.86629</v>
+      </c>
+      <c r="L2">
+        <v>0.88197000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.85782000000000003</v>
+      </c>
+      <c r="N2">
+        <v>0.87502000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.88027999999999995</v>
+      </c>
+      <c r="P2">
+        <v>0.85468999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.85274000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.86194000000000004</v>
+      </c>
+      <c r="S2">
+        <v>0.87561</v>
+      </c>
+      <c r="T2">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.85931000000000002</v>
+      </c>
+      <c r="V2">
+        <v>0.86141999999999996</v>
+      </c>
+      <c r="W2">
+        <v>0.84821999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.84406999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.85470999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>0.84458999999999995</v>
+      </c>
+      <c r="AA2">
+        <v>0.88454999999999995</v>
+      </c>
+      <c r="AB2">
+        <v>0.82903000000000004</v>
+      </c>
+      <c r="AC2">
+        <v>0.86965000000000003</v>
+      </c>
+      <c r="AD2">
+        <v>0.83409</v>
+      </c>
+      <c r="AE2">
+        <v>0.83987999999999996</v>
+      </c>
+      <c r="AF2">
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="AG2">
+        <v>0.84623999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.86389000000000005</v>
+      </c>
+      <c r="AI2">
+        <v>0.82276000000000005</v>
+      </c>
+      <c r="AJ2">
+        <v>0.88192999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.87073999999999996</v>
+      </c>
+      <c r="AM2">
+        <v>0.87977000000000005</v>
+      </c>
+      <c r="AN2">
+        <v>0.86367000000000005</v>
+      </c>
+      <c r="AO2">
+        <v>0.85138999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.84611000000000003</v>
+      </c>
+      <c r="AQ2">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>0.84414999999999996</v>
+      </c>
+      <c r="AS2">
+        <v>0.85853000000000002</v>
+      </c>
+      <c r="AT2">
+        <v>0.87056999999999995</v>
+      </c>
+      <c r="AU2">
+        <v>0.86201000000000005</v>
+      </c>
+      <c r="AV2">
+        <v>0.86163000000000001</v>
+      </c>
+      <c r="AW2">
+        <v>0.87134999999999996</v>
+      </c>
+      <c r="AX2">
+        <v>0.82957999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.86341999999999997</v>
+      </c>
+      <c r="AZ2">
+        <v>0.85933999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.86617999999999995</v>
+      </c>
+      <c r="BB2">
+        <v>0.86377999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.87268000000000001</v>
+      </c>
+      <c r="BD2">
+        <v>0.85202</v>
+      </c>
+      <c r="BE2">
+        <v>0.82538</v>
+      </c>
+      <c r="BF2">
+        <v>0.87192999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.87334000000000001</v>
+      </c>
+      <c r="BH2">
+        <v>0.85945000000000005</v>
+      </c>
+      <c r="BI2">
+        <v>0.86394000000000004</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86653000000000002</v>
+      </c>
+      <c r="BK2">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="BL2">
+        <v>0.87307000000000001</v>
+      </c>
+      <c r="BM2">
+        <v>0.87443000000000004</v>
+      </c>
+      <c r="BN2">
+        <v>0.87317</v>
+      </c>
+      <c r="BO2">
+        <v>0.84404999999999997</v>
+      </c>
+      <c r="BP2">
+        <v>0.88456000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>0.84982999999999997</v>
+      </c>
+      <c r="BS2">
+        <v>0.85584000000000005</v>
+      </c>
+      <c r="BT2">
+        <v>0.86302000000000001</v>
+      </c>
+      <c r="BU2">
+        <v>0.86836999999999998</v>
+      </c>
+      <c r="BV2">
+        <v>0.85657000000000005</v>
+      </c>
+      <c r="BW2">
+        <v>0.84458</v>
+      </c>
+      <c r="BX2">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.85884000000000005</v>
+      </c>
+      <c r="BZ2">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="CA2">
+        <v>0.84236999999999995</v>
+      </c>
+      <c r="CB2">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="CC2">
+        <v>0.88366999999999996</v>
+      </c>
+      <c r="CD2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.86224000000000001</v>
+      </c>
+      <c r="CF2">
+        <v>0.84172999999999998</v>
+      </c>
+      <c r="CG2">
+        <v>0.86155999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.86524000000000001</v>
+      </c>
+      <c r="CI2">
+        <v>0.86443000000000003</v>
+      </c>
+      <c r="CJ2">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="CK2">
+        <v>0.86143999999999998</v>
+      </c>
+      <c r="CL2">
+        <v>0.87068999999999996</v>
+      </c>
+      <c r="CM2">
+        <v>0.85804000000000002</v>
+      </c>
+      <c r="CN2">
+        <v>0.86482999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.84223000000000003</v>
+      </c>
+      <c r="CP2">
+        <v>0.86867000000000005</v>
+      </c>
+      <c r="CQ2">
+        <v>0.87466999999999995</v>
+      </c>
+      <c r="CR2">
+        <v>0.84523000000000004</v>
+      </c>
+      <c r="CS2">
+        <v>0.85016000000000003</v>
+      </c>
+      <c r="CT2">
+        <v>0.84177000000000002</v>
+      </c>
+      <c r="CU2">
+        <v>0.84950999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.8881</v>
+      </c>
+      <c r="CW2">
+        <v>0.85877309999999962</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.85463999999999996</v>
+        <v>0.87829000000000002</v>
       </c>
       <c r="B3">
-        <v>0.86182999999999998</v>
+        <v>0.87075999999999998</v>
       </c>
       <c r="C3">
-        <v>0.85823499999999997</v>
+        <v>0.87358999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.86809000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.84879000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.86656</v>
+      </c>
+      <c r="H3">
+        <v>0.84118999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="J3">
+        <v>0.87090999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.88295000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.84872999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.85592000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.86297999999999997</v>
+      </c>
+      <c r="O3">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.85490999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>0.87455000000000005</v>
+      </c>
+      <c r="R3">
+        <v>0.84519</v>
+      </c>
+      <c r="S3">
+        <v>0.85102999999999995</v>
+      </c>
+      <c r="T3">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.83523000000000003</v>
+      </c>
+      <c r="V3">
+        <v>0.85533000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0.86570999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.86234999999999995</v>
+      </c>
+      <c r="Y3">
+        <v>0.86263999999999996</v>
+      </c>
+      <c r="Z3">
+        <v>0.88305</v>
+      </c>
+      <c r="AA3">
+        <v>0.85543999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.86963999999999997</v>
+      </c>
+      <c r="AC3">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="AD3">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="AF3">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.87556</v>
+      </c>
+      <c r="AH3">
+        <v>0.86312</v>
+      </c>
+      <c r="AI3">
+        <v>0.86836999999999998</v>
+      </c>
+      <c r="AJ3">
+        <v>0.82708000000000004</v>
+      </c>
+      <c r="AK3">
+        <v>0.88053999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.85446</v>
+      </c>
+      <c r="AM3">
+        <v>0.87424999999999997</v>
+      </c>
+      <c r="AN3">
+        <v>0.85945000000000005</v>
+      </c>
+      <c r="AO3">
+        <v>0.85121000000000002</v>
+      </c>
+      <c r="AP3">
+        <v>0.88244999999999996</v>
+      </c>
+      <c r="AQ3">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="AR3">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="AS3">
+        <v>0.84899000000000002</v>
+      </c>
+      <c r="AT3">
+        <v>0.85970999999999997</v>
+      </c>
+      <c r="AU3">
+        <v>0.87014999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.87385000000000002</v>
+      </c>
+      <c r="AW3">
+        <v>0.82938999999999996</v>
+      </c>
+      <c r="AX3">
+        <v>0.85653000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.85641</v>
+      </c>
+      <c r="AZ3">
+        <v>0.88668999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.85038999999999998</v>
+      </c>
+      <c r="BB3">
+        <v>0.86712999999999996</v>
+      </c>
+      <c r="BC3">
+        <v>0.86133000000000004</v>
+      </c>
+      <c r="BD3">
+        <v>0.85285999999999995</v>
+      </c>
+      <c r="BE3">
+        <v>0.84506999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.86112</v>
+      </c>
+      <c r="BG3">
+        <v>0.84314</v>
+      </c>
+      <c r="BH3">
+        <v>0.87151999999999996</v>
+      </c>
+      <c r="BI3">
+        <v>0.85902999999999996</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84916999999999998</v>
+      </c>
+      <c r="BK3">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="BL3">
+        <v>0.84906999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.83965999999999996</v>
+      </c>
+      <c r="BN3">
+        <v>0.83733999999999997</v>
+      </c>
+      <c r="BO3">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="BP3">
+        <v>0.88832</v>
+      </c>
+      <c r="BQ3">
+        <v>0.87687000000000004</v>
+      </c>
+      <c r="BR3">
+        <v>0.86162000000000005</v>
+      </c>
+      <c r="BS3">
+        <v>0.83038999999999996</v>
+      </c>
+      <c r="BT3">
+        <v>0.87290999999999996</v>
+      </c>
+      <c r="BU3">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="BV3">
+        <v>0.85873999999999995</v>
+      </c>
+      <c r="BW3">
+        <v>0.86897999999999997</v>
+      </c>
+      <c r="BX3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="BY3">
+        <v>0.84745000000000004</v>
+      </c>
+      <c r="BZ3">
+        <v>0.88556999999999997</v>
+      </c>
+      <c r="CA3">
+        <v>0.85646999999999995</v>
+      </c>
+      <c r="CB3">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="CC3">
+        <v>0.84372999999999998</v>
+      </c>
+      <c r="CD3">
+        <v>0.86995999999999996</v>
+      </c>
+      <c r="CE3">
+        <v>0.85170999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.87695999999999996</v>
+      </c>
+      <c r="CG3">
+        <v>0.85</v>
+      </c>
+      <c r="CH3">
+        <v>0.86112</v>
+      </c>
+      <c r="CI3">
+        <v>0.86065000000000003</v>
+      </c>
+      <c r="CJ3">
+        <v>0.85392000000000001</v>
+      </c>
+      <c r="CK3">
+        <v>0.86416000000000004</v>
+      </c>
+      <c r="CL3">
+        <v>0.83616999999999997</v>
+      </c>
+      <c r="CM3">
+        <v>0.85133999999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.86955000000000005</v>
+      </c>
+      <c r="CO3">
+        <v>0.86226000000000003</v>
+      </c>
+      <c r="CP3">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="CR3">
+        <v>0.87411000000000005</v>
+      </c>
+      <c r="CS3">
+        <v>0.86989000000000005</v>
+      </c>
+      <c r="CT3">
+        <v>0.83325000000000005</v>
+      </c>
+      <c r="CU3">
+        <v>0.83979000000000004</v>
+      </c>
+      <c r="CV3">
+        <v>0.86175999999999997</v>
+      </c>
+      <c r="CW3">
+        <v>0.85971839999999977</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83291999999999999</v>
+        <v>0.89358000000000004</v>
       </c>
       <c r="B4">
-        <v>0.86868999999999996</v>
+        <v>0.88075000000000003</v>
       </c>
       <c r="C4">
-        <v>0.85080500000000003</v>
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.86424000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.85016999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.84784999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.85824999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.83511000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.84728000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.85931999999999997</v>
+      </c>
+      <c r="M4">
+        <v>0.85570999999999997</v>
+      </c>
+      <c r="N4">
+        <v>0.85241</v>
+      </c>
+      <c r="O4">
+        <v>0.88000999999999996</v>
+      </c>
+      <c r="P4">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.88295999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.87163000000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.86692999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.85477999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.84308000000000005</v>
+      </c>
+      <c r="W4">
+        <v>0.87883</v>
+      </c>
+      <c r="X4">
+        <v>0.87914000000000003</v>
+      </c>
+      <c r="Y4">
+        <v>0.83684000000000003</v>
+      </c>
+      <c r="Z4">
+        <v>0.86085999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>0.86582000000000003</v>
+      </c>
+      <c r="AB4">
+        <v>0.85396000000000005</v>
+      </c>
+      <c r="AC4">
+        <v>0.86643999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.85143999999999997</v>
+      </c>
+      <c r="AE4">
+        <v>0.87722999999999995</v>
+      </c>
+      <c r="AF4">
+        <v>0.85843999999999998</v>
+      </c>
+      <c r="AG4">
+        <v>0.88858999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.85809000000000002</v>
+      </c>
+      <c r="AI4">
+        <v>0.86260999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.85826000000000002</v>
+      </c>
+      <c r="AK4">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="AL4">
+        <v>0.87199000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.86692000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.86387999999999998</v>
+      </c>
+      <c r="AO4">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>0.86085999999999996</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85934999999999995</v>
+      </c>
+      <c r="AR4">
+        <v>0.89327999999999996</v>
+      </c>
+      <c r="AS4">
+        <v>0.87038000000000004</v>
+      </c>
+      <c r="AT4">
+        <v>0.85301000000000005</v>
+      </c>
+      <c r="AU4">
+        <v>0.84236</v>
+      </c>
+      <c r="AV4">
+        <v>0.87136999999999998</v>
+      </c>
+      <c r="AW4">
+        <v>0.84216999999999997</v>
+      </c>
+      <c r="AX4">
+        <v>0.82987999999999995</v>
+      </c>
+      <c r="AY4">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="AZ4">
+        <v>0.88363000000000003</v>
+      </c>
+      <c r="BA4">
+        <v>0.85748999999999997</v>
+      </c>
+      <c r="BB4">
+        <v>0.86526000000000003</v>
+      </c>
+      <c r="BC4">
+        <v>0.87744999999999995</v>
+      </c>
+      <c r="BD4">
+        <v>0.85287999999999997</v>
+      </c>
+      <c r="BE4">
+        <v>0.85795999999999994</v>
+      </c>
+      <c r="BF4">
+        <v>0.84531000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.88961000000000001</v>
+      </c>
+      <c r="BH4">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="BI4">
+        <v>0.85892000000000002</v>
+      </c>
+      <c r="BJ4">
+        <v>0.87583</v>
+      </c>
+      <c r="BK4">
+        <v>0.88351000000000002</v>
+      </c>
+      <c r="BL4">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="BM4">
+        <v>0.84250999999999998</v>
+      </c>
+      <c r="BN4">
+        <v>0.8377</v>
+      </c>
+      <c r="BO4">
+        <v>0.88973000000000002</v>
+      </c>
+      <c r="BP4">
+        <v>0.86473999999999995</v>
+      </c>
+      <c r="BQ4">
+        <v>0.84387999999999996</v>
+      </c>
+      <c r="BR4">
+        <v>0.84611000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.86219000000000001</v>
+      </c>
+      <c r="BT4">
+        <v>0.84863999999999995</v>
+      </c>
+      <c r="BU4">
+        <v>0.87927</v>
+      </c>
+      <c r="BV4">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="BW4">
+        <v>0.87185000000000001</v>
+      </c>
+      <c r="BX4">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="BY4">
+        <v>0.86512999999999995</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="CA4">
+        <v>0.86799000000000004</v>
+      </c>
+      <c r="CB4">
+        <v>0.83226</v>
+      </c>
+      <c r="CC4">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="CD4">
+        <v>0.84670999999999996</v>
+      </c>
+      <c r="CE4">
+        <v>0.88266</v>
+      </c>
+      <c r="CF4">
+        <v>0.85397000000000001</v>
+      </c>
+      <c r="CG4">
+        <v>0.8458</v>
+      </c>
+      <c r="CH4">
+        <v>0.86465999999999998</v>
+      </c>
+      <c r="CI4">
+        <v>0.85328000000000004</v>
+      </c>
+      <c r="CJ4">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="CK4">
+        <v>0.87663999999999997</v>
+      </c>
+      <c r="CL4">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="CM4">
+        <v>0.87646000000000002</v>
+      </c>
+      <c r="CN4">
+        <v>0.8891</v>
+      </c>
+      <c r="CO4">
+        <v>0.86768999999999996</v>
+      </c>
+      <c r="CP4">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="CQ4">
+        <v>0.85687000000000002</v>
+      </c>
+      <c r="CR4">
+        <v>0.88893999999999995</v>
+      </c>
+      <c r="CS4">
+        <v>0.84314999999999996</v>
+      </c>
+      <c r="CT4">
+        <v>0.84826999999999997</v>
+      </c>
+      <c r="CU4">
+        <v>0.85834999999999995</v>
+      </c>
+      <c r="CV4">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="CW4">
+        <v>0.86239969999999966</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.87519000000000002</v>
+        <v>0.86160999999999999</v>
       </c>
       <c r="B5">
-        <v>0.88612999999999997</v>
+        <v>0.88392999999999999</v>
       </c>
       <c r="C5">
-        <v>0.88066</v>
+        <v>0.84746999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.85658000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.83255000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.85558000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.89241999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.87926000000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.89541999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.85923000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.86058999999999997</v>
+      </c>
+      <c r="M5">
+        <v>0.82750999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.86451</v>
+      </c>
+      <c r="O5">
+        <v>0.84092</v>
+      </c>
+      <c r="P5">
+        <v>0.84845000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="R5">
+        <v>0.87373999999999996</v>
+      </c>
+      <c r="S5">
+        <v>0.87724999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.87180999999999997</v>
+      </c>
+      <c r="U5">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="V5">
+        <v>0.85475000000000001</v>
+      </c>
+      <c r="W5">
+        <v>0.88863999999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.85638000000000003</v>
+      </c>
+      <c r="Y5">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.87168000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.86445000000000005</v>
+      </c>
+      <c r="AB5">
+        <v>0.86717</v>
+      </c>
+      <c r="AC5">
+        <v>0.87466999999999995</v>
+      </c>
+      <c r="AD5">
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.85172000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.86124000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.86285000000000001</v>
+      </c>
+      <c r="AI5">
+        <v>0.83606000000000003</v>
+      </c>
+      <c r="AJ5">
+        <v>0.86075000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.87766</v>
+      </c>
+      <c r="AL5">
+        <v>0.87087000000000003</v>
+      </c>
+      <c r="AM5">
+        <v>0.86067000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.83650999999999998</v>
+      </c>
+      <c r="AO5">
+        <v>0.86029</v>
+      </c>
+      <c r="AP5">
+        <v>0.86651</v>
+      </c>
+      <c r="AQ5">
+        <v>0.87456999999999996</v>
+      </c>
+      <c r="AR5">
+        <v>0.86189000000000004</v>
+      </c>
+      <c r="AS5">
+        <v>0.86817</v>
+      </c>
+      <c r="AT5">
+        <v>0.8639</v>
+      </c>
+      <c r="AU5">
+        <v>0.88122</v>
+      </c>
+      <c r="AV5">
+        <v>0.87488999999999995</v>
+      </c>
+      <c r="AW5">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="AX5">
+        <v>0.85538999999999998</v>
+      </c>
+      <c r="AY5">
+        <v>0.85651999999999995</v>
+      </c>
+      <c r="AZ5">
+        <v>0.87373999999999996</v>
+      </c>
+      <c r="BA5">
+        <v>0.86412</v>
+      </c>
+      <c r="BB5">
+        <v>0.86255999999999999</v>
+      </c>
+      <c r="BC5">
+        <v>0.83662999999999998</v>
+      </c>
+      <c r="BD5">
+        <v>0.84806999999999999</v>
+      </c>
+      <c r="BE5">
+        <v>0.84194999999999998</v>
+      </c>
+      <c r="BF5">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="BG5">
+        <v>0.86614999999999998</v>
+      </c>
+      <c r="BH5">
+        <v>0.87278</v>
+      </c>
+      <c r="BI5">
+        <v>0.87212999999999996</v>
+      </c>
+      <c r="BJ5">
+        <v>0.82696999999999998</v>
+      </c>
+      <c r="BK5">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="BL5">
+        <v>0.86412</v>
+      </c>
+      <c r="BM5">
+        <v>0.85204000000000002</v>
+      </c>
+      <c r="BN5">
+        <v>0.85560999999999998</v>
+      </c>
+      <c r="BO5">
+        <v>0.86797999999999997</v>
+      </c>
+      <c r="BP5">
+        <v>0.88044999999999995</v>
+      </c>
+      <c r="BQ5">
+        <v>0.87136000000000002</v>
+      </c>
+      <c r="BR5">
+        <v>0.86467000000000005</v>
+      </c>
+      <c r="BS5">
+        <v>0.84467000000000003</v>
+      </c>
+      <c r="BT5">
+        <v>0.86070999999999998</v>
+      </c>
+      <c r="BU5">
+        <v>0.83884999999999998</v>
+      </c>
+      <c r="BV5">
+        <v>0.84548999999999996</v>
+      </c>
+      <c r="BW5">
+        <v>0.87180999999999997</v>
+      </c>
+      <c r="BX5">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>0.87094000000000005</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="CA5">
+        <v>0.83631999999999995</v>
+      </c>
+      <c r="CB5">
+        <v>0.86634999999999995</v>
+      </c>
+      <c r="CC5">
+        <v>0.87561999999999995</v>
+      </c>
+      <c r="CD5">
+        <v>0.84836999999999996</v>
+      </c>
+      <c r="CE5">
+        <v>0.85001000000000004</v>
+      </c>
+      <c r="CF5">
+        <v>0.88031000000000004</v>
+      </c>
+      <c r="CG5">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="CH5">
+        <v>0.84506999999999999</v>
+      </c>
+      <c r="CI5">
+        <v>0.85355000000000003</v>
+      </c>
+      <c r="CJ5">
+        <v>0.83906000000000003</v>
+      </c>
+      <c r="CK5">
+        <v>0.86565000000000003</v>
+      </c>
+      <c r="CL5">
+        <v>0.84708000000000006</v>
+      </c>
+      <c r="CM5">
+        <v>0.86097000000000001</v>
+      </c>
+      <c r="CN5">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="CO5">
+        <v>0.87058999999999997</v>
+      </c>
+      <c r="CP5">
+        <v>0.84857000000000005</v>
+      </c>
+      <c r="CQ5">
+        <v>0.84182000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>0.84682000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.84962000000000004</v>
+      </c>
+      <c r="CT5">
+        <v>0.86634999999999995</v>
+      </c>
+      <c r="CU5">
+        <v>0.8427</v>
+      </c>
+      <c r="CV5">
+        <v>0.84648999999999996</v>
+      </c>
+      <c r="CW5">
+        <v>0.85973529999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.86948999999999999</v>
+        <v>0.87299000000000004</v>
       </c>
       <c r="B6">
-        <v>0.85165999999999997</v>
+        <v>0.86965999999999999</v>
       </c>
       <c r="C6">
-        <v>0.86057499999999998</v>
+        <v>0.86233000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.83964000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.87061999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.88875000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.85877000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.86872000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.87338000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.85645000000000004</v>
+      </c>
+      <c r="K6">
+        <v>0.87897000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.84231</v>
+      </c>
+      <c r="M6">
+        <v>0.83350999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.86826999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.87287999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.87226999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.86480999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.87495000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.87853000000000003</v>
+      </c>
+      <c r="V6">
+        <v>0.85958999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.87751999999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.87616000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.84065999999999996</v>
+      </c>
+      <c r="Z6">
+        <v>0.88536000000000004</v>
+      </c>
+      <c r="AA6">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="AB6">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="AC6">
+        <v>0.86141999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.87994000000000006</v>
+      </c>
+      <c r="AE6">
+        <v>0.86268999999999996</v>
+      </c>
+      <c r="AF6">
+        <v>0.87112999999999996</v>
+      </c>
+      <c r="AG6">
+        <v>0.86955000000000005</v>
+      </c>
+      <c r="AH6">
+        <v>0.84274000000000004</v>
+      </c>
+      <c r="AI6">
+        <v>0.86307</v>
+      </c>
+      <c r="AJ6">
+        <v>0.84255000000000002</v>
+      </c>
+      <c r="AK6">
+        <v>0.86255000000000004</v>
+      </c>
+      <c r="AL6">
+        <v>0.87565000000000004</v>
+      </c>
+      <c r="AM6">
+        <v>0.85956999999999995</v>
+      </c>
+      <c r="AN6">
+        <v>0.85446</v>
+      </c>
+      <c r="AO6">
+        <v>0.84813000000000005</v>
+      </c>
+      <c r="AP6">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84258999999999995</v>
+      </c>
+      <c r="AR6">
+        <v>0.86472000000000004</v>
+      </c>
+      <c r="AS6">
+        <v>0.85170999999999997</v>
+      </c>
+      <c r="AT6">
+        <v>0.85590999999999995</v>
+      </c>
+      <c r="AU6">
+        <v>0.83238000000000001</v>
+      </c>
+      <c r="AV6">
+        <v>0.85697000000000001</v>
+      </c>
+      <c r="AW6">
+        <v>0.88639000000000001</v>
+      </c>
+      <c r="AX6">
+        <v>0.87771999999999994</v>
+      </c>
+      <c r="AY6">
+        <v>0.86514999999999997</v>
+      </c>
+      <c r="AZ6">
+        <v>0.87238000000000004</v>
+      </c>
+      <c r="BA6">
+        <v>0.86077000000000004</v>
+      </c>
+      <c r="BB6">
+        <v>0.86368</v>
+      </c>
+      <c r="BC6">
+        <v>0.86753999999999998</v>
+      </c>
+      <c r="BD6">
+        <v>0.85712999999999995</v>
+      </c>
+      <c r="BE6">
+        <v>0.84423000000000004</v>
+      </c>
+      <c r="BF6">
+        <v>0.87117</v>
+      </c>
+      <c r="BG6">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="BH6">
+        <v>0.88444</v>
+      </c>
+      <c r="BI6">
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="BJ6">
+        <v>0.87148999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>0.85785</v>
+      </c>
+      <c r="BL6">
+        <v>0.83701000000000003</v>
+      </c>
+      <c r="BM6">
+        <v>0.87407999999999997</v>
+      </c>
+      <c r="BN6">
+        <v>0.86487999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>0.86621000000000004</v>
+      </c>
+      <c r="BP6">
+        <v>0.83433000000000002</v>
+      </c>
+      <c r="BQ6">
+        <v>0.86904999999999999</v>
+      </c>
+      <c r="BR6">
+        <v>0.86202999999999996</v>
+      </c>
+      <c r="BS6">
+        <v>0.86043000000000003</v>
+      </c>
+      <c r="BT6">
+        <v>0.89027999999999996</v>
+      </c>
+      <c r="BU6">
+        <v>0.84997</v>
+      </c>
+      <c r="BV6">
+        <v>0.86936999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.88449</v>
+      </c>
+      <c r="BX6">
+        <v>0.86443999999999999</v>
+      </c>
+      <c r="BY6">
+        <v>0.85789000000000004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.87807000000000002</v>
+      </c>
+      <c r="CA6">
+        <v>0.86245000000000005</v>
+      </c>
+      <c r="CB6">
+        <v>0.87646000000000002</v>
+      </c>
+      <c r="CC6">
+        <v>0.87424999999999997</v>
+      </c>
+      <c r="CD6">
+        <v>0.85768999999999995</v>
+      </c>
+      <c r="CE6">
+        <v>0.86321999999999999</v>
+      </c>
+      <c r="CF6">
+        <v>0.83165</v>
+      </c>
+      <c r="CG6">
+        <v>0.86360999999999999</v>
+      </c>
+      <c r="CH6">
+        <v>0.85607</v>
+      </c>
+      <c r="CI6">
+        <v>0.87575999999999998</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84596000000000005</v>
+      </c>
+      <c r="CK6">
+        <v>0.83569000000000004</v>
+      </c>
+      <c r="CL6">
+        <v>0.86112</v>
+      </c>
+      <c r="CM6">
+        <v>0.88534000000000002</v>
+      </c>
+      <c r="CN6">
+        <v>0.86963000000000001</v>
+      </c>
+      <c r="CO6">
+        <v>0.87731000000000003</v>
+      </c>
+      <c r="CP6">
+        <v>0.86624000000000001</v>
+      </c>
+      <c r="CQ6">
+        <v>0.87634000000000001</v>
+      </c>
+      <c r="CR6">
+        <v>0.88478999999999997</v>
+      </c>
+      <c r="CS6">
+        <v>0.84014</v>
+      </c>
+      <c r="CT6">
+        <v>0.87507000000000001</v>
+      </c>
+      <c r="CU6">
+        <v>0.86363999999999996</v>
+      </c>
+      <c r="CV6">
+        <v>0.85646999999999995</v>
+      </c>
+      <c r="CW6">
+        <v>0.86359249999999965</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.84953000000000001</v>
+        <v>0.84350999999999998</v>
       </c>
       <c r="B7">
-        <v>0.87226999999999999</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="C7">
-        <v>0.8609</v>
+        <v>0.86238999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.85926999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.88261000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.85668999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.89517000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.84441999999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.85345000000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.83831999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.88546999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.85873999999999995</v>
+      </c>
+      <c r="O7">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.87273999999999996</v>
+      </c>
+      <c r="Q7">
+        <v>0.8427</v>
+      </c>
+      <c r="R7">
+        <v>0.87302000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.85431000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.85894000000000004</v>
+      </c>
+      <c r="U7">
+        <v>0.83962999999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.86002000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.86555000000000004</v>
+      </c>
+      <c r="X7">
+        <v>0.86806000000000005</v>
+      </c>
+      <c r="Y7">
+        <v>0.84362000000000004</v>
+      </c>
+      <c r="Z7">
+        <v>0.86014999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>0.87021000000000004</v>
+      </c>
+      <c r="AC7">
+        <v>0.86351999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.87358999999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.88788</v>
+      </c>
+      <c r="AF7">
+        <v>0.85177000000000003</v>
+      </c>
+      <c r="AG7">
+        <v>0.85041999999999995</v>
+      </c>
+      <c r="AH7">
+        <v>0.87368999999999997</v>
+      </c>
+      <c r="AI7">
+        <v>0.86016999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>0.88371999999999995</v>
+      </c>
+      <c r="AK7">
+        <v>0.88122999999999996</v>
+      </c>
+      <c r="AL7">
+        <v>0.86136999999999997</v>
+      </c>
+      <c r="AM7">
+        <v>0.85346</v>
+      </c>
+      <c r="AN7">
+        <v>0.84316000000000002</v>
+      </c>
+      <c r="AO7">
+        <v>0.85724</v>
+      </c>
+      <c r="AP7">
+        <v>0.86660999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.85746999999999995</v>
+      </c>
+      <c r="AR7">
+        <v>0.85494000000000003</v>
+      </c>
+      <c r="AS7">
+        <v>0.86895</v>
+      </c>
+      <c r="AT7">
+        <v>0.84380999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.86194999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>0.86490999999999996</v>
+      </c>
+      <c r="AW7">
+        <v>0.85463</v>
+      </c>
+      <c r="AX7">
+        <v>0.8669</v>
+      </c>
+      <c r="AY7">
+        <v>0.86162000000000005</v>
+      </c>
+      <c r="AZ7">
+        <v>0.87516000000000005</v>
+      </c>
+      <c r="BA7">
+        <v>0.87968999999999997</v>
+      </c>
+      <c r="BB7">
+        <v>0.87253000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>0.87185999999999997</v>
+      </c>
+      <c r="BD7">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="BE7">
+        <v>0.83967999999999998</v>
+      </c>
+      <c r="BF7">
+        <v>0.84902</v>
+      </c>
+      <c r="BG7">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="BH7">
+        <v>0.84677999999999998</v>
+      </c>
+      <c r="BI7">
+        <v>0.86431000000000002</v>
+      </c>
+      <c r="BJ7">
+        <v>0.85616999999999999</v>
+      </c>
+      <c r="BK7">
+        <v>0.87165000000000004</v>
+      </c>
+      <c r="BL7">
+        <v>0.86297000000000001</v>
+      </c>
+      <c r="BM7">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="BN7">
+        <v>0.86534999999999995</v>
+      </c>
+      <c r="BO7">
+        <v>0.84653</v>
+      </c>
+      <c r="BP7">
+        <v>0.83633999999999997</v>
+      </c>
+      <c r="BQ7">
+        <v>0.85779000000000005</v>
+      </c>
+      <c r="BR7">
+        <v>0.89066000000000001</v>
+      </c>
+      <c r="BS7">
+        <v>0.87463000000000002</v>
+      </c>
+      <c r="BT7">
+        <v>0.87412999999999996</v>
+      </c>
+      <c r="BU7">
+        <v>0.83272999999999997</v>
+      </c>
+      <c r="BV7">
+        <v>0.87273999999999996</v>
+      </c>
+      <c r="BW7">
+        <v>0.85658999999999996</v>
+      </c>
+      <c r="BX7">
+        <v>0.84616999999999998</v>
+      </c>
+      <c r="BY7">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="BZ7">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="CA7">
+        <v>0.85341999999999996</v>
+      </c>
+      <c r="CB7">
+        <v>0.89171999999999996</v>
+      </c>
+      <c r="CC7">
+        <v>0.82716999999999996</v>
+      </c>
+      <c r="CD7">
+        <v>0.87407999999999997</v>
+      </c>
+      <c r="CE7">
+        <v>0.86251</v>
+      </c>
+      <c r="CF7">
+        <v>0.85302999999999995</v>
+      </c>
+      <c r="CG7">
+        <v>0.87234999999999996</v>
+      </c>
+      <c r="CH7">
+        <v>0.84855000000000003</v>
+      </c>
+      <c r="CI7">
+        <v>0.88971999999999996</v>
+      </c>
+      <c r="CJ7">
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="CK7">
+        <v>0.86204000000000003</v>
+      </c>
+      <c r="CL7">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="CM7">
+        <v>0.85528999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="CO7">
+        <v>0.85004000000000002</v>
+      </c>
+      <c r="CP7">
+        <v>0.87114999999999998</v>
+      </c>
+      <c r="CQ7">
+        <v>0.83208000000000004</v>
+      </c>
+      <c r="CR7">
+        <v>0.86600999999999995</v>
+      </c>
+      <c r="CS7">
+        <v>0.88229000000000002</v>
+      </c>
+      <c r="CT7">
+        <v>0.86821999999999999</v>
+      </c>
+      <c r="CU7">
+        <v>0.84475</v>
+      </c>
+      <c r="CV7">
+        <v>0.85380999999999996</v>
+      </c>
+      <c r="CW7">
+        <v>0.86102310000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.86943000000000004</v>
+        <v>0.85824</v>
       </c>
       <c r="B8">
-        <v>0.85760999999999998</v>
+        <v>0.84874000000000005</v>
       </c>
       <c r="C8">
-        <v>0.86352000000000007</v>
+        <v>0.85546</v>
+      </c>
+      <c r="D8">
+        <v>0.87473999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.88210999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.86741999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.84233000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.86502000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.85241999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.85848999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.85675000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.85746</v>
+      </c>
+      <c r="M8">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.8498</v>
+      </c>
+      <c r="O8">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>0.86578999999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.83848999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.83386000000000005</v>
+      </c>
+      <c r="T8">
+        <v>0.83897999999999995</v>
+      </c>
+      <c r="U8">
+        <v>0.85438000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.87743000000000004</v>
+      </c>
+      <c r="W8">
+        <v>0.88236000000000003</v>
+      </c>
+      <c r="X8">
+        <v>0.83931999999999995</v>
+      </c>
+      <c r="Y8">
+        <v>0.87290999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.84211000000000003</v>
+      </c>
+      <c r="AA8">
+        <v>0.83918999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>0.86255000000000004</v>
+      </c>
+      <c r="AC8">
+        <v>0.85431000000000001</v>
+      </c>
+      <c r="AD8">
+        <v>0.8599</v>
+      </c>
+      <c r="AE8">
+        <v>0.88185999999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.86094000000000004</v>
+      </c>
+      <c r="AG8">
+        <v>0.83523000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.84131</v>
+      </c>
+      <c r="AI8">
+        <v>0.87331999999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="AK8">
+        <v>0.86131999999999997</v>
+      </c>
+      <c r="AL8">
+        <v>0.84982000000000002</v>
+      </c>
+      <c r="AM8">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="AN8">
+        <v>0.84487000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.86921000000000004</v>
+      </c>
+      <c r="AP8">
+        <v>0.88529000000000002</v>
+      </c>
+      <c r="AQ8">
+        <v>0.84282000000000001</v>
+      </c>
+      <c r="AR8">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="AS8">
+        <v>0.85567000000000004</v>
+      </c>
+      <c r="AT8">
+        <v>0.87368000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.88131000000000004</v>
+      </c>
+      <c r="AV8">
+        <v>0.85590999999999995</v>
+      </c>
+      <c r="AW8">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="AX8">
+        <v>0.86290999999999995</v>
+      </c>
+      <c r="AY8">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="AZ8">
+        <v>0.84580999999999995</v>
+      </c>
+      <c r="BA8">
+        <v>0.86089000000000004</v>
+      </c>
+      <c r="BB8">
+        <v>0.87202000000000002</v>
+      </c>
+      <c r="BC8">
+        <v>0.84874000000000005</v>
+      </c>
+      <c r="BD8">
+        <v>0.86409000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>0.83145000000000002</v>
+      </c>
+      <c r="BF8">
+        <v>0.86323000000000005</v>
+      </c>
+      <c r="BG8">
+        <v>0.86241000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>0.86241999999999996</v>
+      </c>
+      <c r="BI8">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="BJ8">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.86928000000000005</v>
+      </c>
+      <c r="BL8">
+        <v>0.85724</v>
+      </c>
+      <c r="BM8">
+        <v>0.86423000000000005</v>
+      </c>
+      <c r="BN8">
+        <v>0.82994999999999997</v>
+      </c>
+      <c r="BO8">
+        <v>0.84258999999999995</v>
+      </c>
+      <c r="BP8">
+        <v>0.85546</v>
+      </c>
+      <c r="BQ8">
+        <v>0.87977000000000005</v>
+      </c>
+      <c r="BR8">
+        <v>0.86578999999999995</v>
+      </c>
+      <c r="BS8">
+        <v>0.84458999999999995</v>
+      </c>
+      <c r="BT8">
+        <v>0.86824999999999997</v>
+      </c>
+      <c r="BU8">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="BV8">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="BW8">
+        <v>0.8679</v>
+      </c>
+      <c r="BX8">
+        <v>0.85941000000000001</v>
+      </c>
+      <c r="BY8">
+        <v>0.87631000000000003</v>
+      </c>
+      <c r="BZ8">
+        <v>0.88793</v>
+      </c>
+      <c r="CA8">
+        <v>0.86192999999999997</v>
+      </c>
+      <c r="CB8">
+        <v>0.84621000000000002</v>
+      </c>
+      <c r="CC8">
+        <v>0.86197000000000001</v>
+      </c>
+      <c r="CD8">
+        <v>0.87304000000000004</v>
+      </c>
+      <c r="CE8">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="CF8">
+        <v>0.86802000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.84794000000000003</v>
+      </c>
+      <c r="CH8">
+        <v>0.87022999999999995</v>
+      </c>
+      <c r="CI8">
+        <v>0.82596000000000003</v>
+      </c>
+      <c r="CJ8">
+        <v>0.87322</v>
+      </c>
+      <c r="CK8">
+        <v>0.85397000000000001</v>
+      </c>
+      <c r="CL8">
+        <v>0.83065999999999995</v>
+      </c>
+      <c r="CM8">
+        <v>0.88136000000000003</v>
+      </c>
+      <c r="CN8">
+        <v>0.85294000000000003</v>
+      </c>
+      <c r="CO8">
+        <v>0.88256999999999997</v>
+      </c>
+      <c r="CP8">
+        <v>0.88329000000000002</v>
+      </c>
+      <c r="CQ8">
+        <v>0.85582000000000003</v>
+      </c>
+      <c r="CR8">
+        <v>0.86284000000000005</v>
+      </c>
+      <c r="CS8">
+        <v>0.86143000000000003</v>
+      </c>
+      <c r="CT8">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="CU8">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="CV8">
+        <v>0.86751999999999996</v>
+      </c>
+      <c r="CW8">
+        <v>0.85947209999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.85438999999999998</v>
+        <v>0.88085999999999998</v>
       </c>
       <c r="B9">
-        <v>0.86406000000000005</v>
+        <v>0.87009000000000003</v>
       </c>
       <c r="C9">
-        <v>0.85922500000000002</v>
+        <v>0.86972000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.85314000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.84733000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.89576</v>
+      </c>
+      <c r="J9">
+        <v>0.85626999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.86365000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.86075999999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.85499000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.85789000000000004</v>
+      </c>
+      <c r="O9">
+        <v>0.87102000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.84314999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.87524000000000002</v>
+      </c>
+      <c r="S9">
+        <v>0.84274000000000004</v>
+      </c>
+      <c r="T9">
+        <v>0.88202000000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.86809000000000003</v>
+      </c>
+      <c r="V9">
+        <v>0.86748000000000003</v>
+      </c>
+      <c r="W9">
+        <v>0.88878000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.85946999999999996</v>
+      </c>
+      <c r="Y9">
+        <v>0.86556999999999995</v>
+      </c>
+      <c r="Z9">
+        <v>0.84758999999999995</v>
+      </c>
+      <c r="AA9">
+        <v>0.88292999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.87751999999999997</v>
+      </c>
+      <c r="AC9">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="AE9">
+        <v>0.85060999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="AG9">
+        <v>0.88522000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.86402000000000001</v>
+      </c>
+      <c r="AI9">
+        <v>0.86973</v>
+      </c>
+      <c r="AJ9">
+        <v>0.87383</v>
+      </c>
+      <c r="AK9">
+        <v>0.85824</v>
+      </c>
+      <c r="AL9">
+        <v>0.86094999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>0.86358000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.86602999999999997</v>
+      </c>
+      <c r="AO9">
+        <v>0.88292999999999999</v>
+      </c>
+      <c r="AP9">
+        <v>0.86173</v>
+      </c>
+      <c r="AQ9">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="AR9">
+        <v>0.87031999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.88675999999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.85546</v>
+      </c>
+      <c r="AU9">
+        <v>0.85734999999999995</v>
+      </c>
+      <c r="AV9">
+        <v>0.86731999999999998</v>
+      </c>
+      <c r="AW9">
+        <v>0.85414000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>0.85812999999999995</v>
+      </c>
+      <c r="AY9">
+        <v>0.84170999999999996</v>
+      </c>
+      <c r="AZ9">
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="BB9">
+        <v>0.86926999999999999</v>
+      </c>
+      <c r="BC9">
+        <v>0.88387000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="BE9">
+        <v>0.87392000000000003</v>
+      </c>
+      <c r="BF9">
+        <v>0.88114999999999999</v>
+      </c>
+      <c r="BG9">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="BH9">
+        <v>0.87946999999999997</v>
+      </c>
+      <c r="BI9">
+        <v>0.86278999999999995</v>
+      </c>
+      <c r="BJ9">
+        <v>0.88563000000000003</v>
+      </c>
+      <c r="BK9">
+        <v>0.876</v>
+      </c>
+      <c r="BL9">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="BM9">
+        <v>0.84816999999999998</v>
+      </c>
+      <c r="BN9">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.86621000000000004</v>
+      </c>
+      <c r="BP9">
+        <v>0.85872000000000004</v>
+      </c>
+      <c r="BQ9">
+        <v>0.84547000000000005</v>
+      </c>
+      <c r="BR9">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="BS9">
+        <v>0.84924999999999995</v>
+      </c>
+      <c r="BT9">
+        <v>0.85914999999999997</v>
+      </c>
+      <c r="BU9">
+        <v>0.86094000000000004</v>
+      </c>
+      <c r="BV9">
+        <v>0.87736000000000003</v>
+      </c>
+      <c r="BW9">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="BX9">
+        <v>0.88236999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.84404999999999997</v>
+      </c>
+      <c r="BZ9">
+        <v>0.87005999999999994</v>
+      </c>
+      <c r="CA9">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="CB9">
+        <v>0.86556999999999995</v>
+      </c>
+      <c r="CC9">
+        <v>0.83367999999999998</v>
+      </c>
+      <c r="CD9">
+        <v>0.83957999999999999</v>
+      </c>
+      <c r="CE9">
+        <v>0.88819000000000004</v>
+      </c>
+      <c r="CF9">
+        <v>0.85187000000000002</v>
+      </c>
+      <c r="CG9">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="CH9">
+        <v>0.86233000000000004</v>
+      </c>
+      <c r="CI9">
+        <v>0.85570999999999997</v>
+      </c>
+      <c r="CJ9">
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="CK9">
+        <v>0.85199000000000003</v>
+      </c>
+      <c r="CL9">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="CM9">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="CN9">
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="CO9">
+        <v>0.86585999999999996</v>
+      </c>
+      <c r="CP9">
+        <v>0.86285000000000001</v>
+      </c>
+      <c r="CQ9">
+        <v>0.85533000000000003</v>
+      </c>
+      <c r="CR9">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="CS9">
+        <v>0.85465999999999998</v>
+      </c>
+      <c r="CT9">
+        <v>0.86582000000000003</v>
+      </c>
+      <c r="CU9">
+        <v>0.85402999999999996</v>
+      </c>
+      <c r="CV9">
+        <v>0.83042000000000005</v>
+      </c>
+      <c r="CW9">
+        <v>0.86317060000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.84472000000000003</v>
+        <v>0.87563999999999997</v>
       </c>
       <c r="B10">
-        <v>0.85019999999999996</v>
+        <v>0.87739999999999996</v>
       </c>
       <c r="C10">
-        <v>0.84745999999999999</v>
+        <v>0.87195999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.86107999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.86</v>
+      </c>
+      <c r="F10">
+        <v>0.88561999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.88641000000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.86224999999999996</v>
+      </c>
+      <c r="K10">
+        <v>0.87897999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.85653999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.83679000000000003</v>
+      </c>
+      <c r="O10">
+        <v>0.87224000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.86236999999999997</v>
+      </c>
+      <c r="Q10">
+        <v>0.85145999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.85512999999999995</v>
+      </c>
+      <c r="S10">
+        <v>0.86306000000000005</v>
+      </c>
+      <c r="T10">
+        <v>0.83384000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.86992999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.82113000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.85085</v>
+      </c>
+      <c r="X10">
+        <v>0.85846</v>
+      </c>
+      <c r="Y10">
+        <v>0.87907000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.86951000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>0.86897000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.87017</v>
+      </c>
+      <c r="AD10">
+        <v>0.85284000000000004</v>
+      </c>
+      <c r="AE10">
+        <v>0.86319000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.87046000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="AH10">
+        <v>0.86567000000000005</v>
+      </c>
+      <c r="AI10">
+        <v>0.87668999999999997</v>
+      </c>
+      <c r="AJ10">
+        <v>0.87800999999999996</v>
+      </c>
+      <c r="AK10">
+        <v>0.85426000000000002</v>
+      </c>
+      <c r="AL10">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="AM10">
+        <v>0.81996000000000002</v>
+      </c>
+      <c r="AN10">
+        <v>0.85765999999999998</v>
+      </c>
+      <c r="AO10">
+        <v>0.87480999999999998</v>
+      </c>
+      <c r="AP10">
+        <v>0.83211999999999997</v>
+      </c>
+      <c r="AQ10">
+        <v>0.85897000000000001</v>
+      </c>
+      <c r="AR10">
+        <v>0.86484000000000005</v>
+      </c>
+      <c r="AS10">
+        <v>0.85163999999999995</v>
+      </c>
+      <c r="AT10">
+        <v>0.85533000000000003</v>
+      </c>
+      <c r="AU10">
+        <v>0.86917</v>
+      </c>
+      <c r="AV10">
+        <v>0.85955000000000004</v>
+      </c>
+      <c r="AW10">
+        <v>0.86490999999999996</v>
+      </c>
+      <c r="AX10">
+        <v>0.86131999999999997</v>
+      </c>
+      <c r="AY10">
+        <v>0.84297999999999995</v>
+      </c>
+      <c r="AZ10">
+        <v>0.85053000000000001</v>
+      </c>
+      <c r="BA10">
+        <v>0.86058000000000001</v>
+      </c>
+      <c r="BB10">
+        <v>0.87287000000000003</v>
+      </c>
+      <c r="BC10">
+        <v>0.88244</v>
+      </c>
+      <c r="BD10">
+        <v>0.85262000000000004</v>
+      </c>
+      <c r="BE10">
+        <v>0.86085</v>
+      </c>
+      <c r="BF10">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="BG10">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="BH10">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="BI10">
+        <v>0.88080999999999998</v>
+      </c>
+      <c r="BJ10">
+        <v>0.85319</v>
+      </c>
+      <c r="BK10">
+        <v>0.86729000000000001</v>
+      </c>
+      <c r="BL10">
+        <v>0.82913999999999999</v>
+      </c>
+      <c r="BM10">
+        <v>0.86536000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="BO10">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="BP10">
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="BQ10">
+        <v>0.87185000000000001</v>
+      </c>
+      <c r="BR10">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="BS10">
+        <v>0.88678000000000001</v>
+      </c>
+      <c r="BT10">
+        <v>0.84136999999999995</v>
+      </c>
+      <c r="BU10">
+        <v>0.84036999999999995</v>
+      </c>
+      <c r="BV10">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="BW10">
+        <v>0.85011000000000003</v>
+      </c>
+      <c r="BX10">
+        <v>0.88368999999999998</v>
+      </c>
+      <c r="BY10">
+        <v>0.87082999999999999</v>
+      </c>
+      <c r="BZ10">
+        <v>0.87295</v>
+      </c>
+      <c r="CA10">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="CB10">
+        <v>0.86824999999999997</v>
+      </c>
+      <c r="CC10">
+        <v>0.88105999999999995</v>
+      </c>
+      <c r="CD10">
+        <v>0.87285000000000001</v>
+      </c>
+      <c r="CE10">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="CF10">
+        <v>0.82906999999999997</v>
+      </c>
+      <c r="CG10">
+        <v>0.88895999999999997</v>
+      </c>
+      <c r="CH10">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="CI10">
+        <v>0.81945000000000001</v>
+      </c>
+      <c r="CJ10">
+        <v>0.87461999999999995</v>
+      </c>
+      <c r="CK10">
+        <v>0.86377000000000004</v>
+      </c>
+      <c r="CL10">
+        <v>0.86956999999999995</v>
+      </c>
+      <c r="CM10">
+        <v>0.88756999999999997</v>
+      </c>
+      <c r="CN10">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="CO10">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="CP10">
+        <v>0.85906000000000005</v>
+      </c>
+      <c r="CQ10">
+        <v>0.87909000000000004</v>
+      </c>
+      <c r="CR10">
+        <v>0.85621999999999998</v>
+      </c>
+      <c r="CS10">
+        <v>0.87827999999999995</v>
+      </c>
+      <c r="CT10">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="CU10">
+        <v>0.87338000000000005</v>
+      </c>
+      <c r="CV10">
+        <v>0.88792000000000004</v>
+      </c>
+      <c r="CW10">
+        <v>0.86232940000000025</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.87873000000000001</v>
+        <v>0.86387000000000003</v>
       </c>
       <c r="B11">
-        <v>0.85338000000000003</v>
+        <v>0.88119000000000003</v>
       </c>
       <c r="C11">
-        <v>0.86605500000000002</v>
+        <v>0.87104999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.87756999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.87965000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.86375999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.84362999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.85914999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.86506000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.85655000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.84933000000000003</v>
+      </c>
+      <c r="O11">
+        <v>0.86477000000000004</v>
+      </c>
+      <c r="P11">
+        <v>0.87790999999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.86177999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.87014999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.85185999999999995</v>
+      </c>
+      <c r="T11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.88338000000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.84863999999999995</v>
+      </c>
+      <c r="W11">
+        <v>0.83858999999999995</v>
+      </c>
+      <c r="X11">
+        <v>0.84553999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="Z11">
+        <v>0.87351000000000001</v>
+      </c>
+      <c r="AA11">
+        <v>0.86060999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="AC11">
+        <v>0.86528000000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="AE11">
+        <v>0.86765999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.84997</v>
+      </c>
+      <c r="AG11">
+        <v>0.84079000000000004</v>
+      </c>
+      <c r="AH11">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.84946999999999995</v>
+      </c>
+      <c r="AJ11">
+        <v>0.84031</v>
+      </c>
+      <c r="AK11">
+        <v>0.85236000000000001</v>
+      </c>
+      <c r="AL11">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.85035000000000005</v>
+      </c>
+      <c r="AN11">
+        <v>0.84077999999999997</v>
+      </c>
+      <c r="AO11">
+        <v>0.83799000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.85514999999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>0.84948999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.88293999999999995</v>
+      </c>
+      <c r="AS11">
+        <v>0.83192999999999995</v>
+      </c>
+      <c r="AT11">
+        <v>0.86629</v>
+      </c>
+      <c r="AU11">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="AV11">
+        <v>0.88122999999999996</v>
+      </c>
+      <c r="AW11">
+        <v>0.86780999999999997</v>
+      </c>
+      <c r="AX11">
+        <v>0.85355999999999999</v>
+      </c>
+      <c r="AY11">
+        <v>0.85241</v>
+      </c>
+      <c r="AZ11">
+        <v>0.89476999999999995</v>
+      </c>
+      <c r="BA11">
+        <v>0.86334999999999995</v>
+      </c>
+      <c r="BB11">
+        <v>0.85936999999999997</v>
+      </c>
+      <c r="BC11">
+        <v>0.87221000000000004</v>
+      </c>
+      <c r="BD11">
+        <v>0.85096000000000005</v>
+      </c>
+      <c r="BE11">
+        <v>0.86773999999999996</v>
+      </c>
+      <c r="BF11">
+        <v>0.87687000000000004</v>
+      </c>
+      <c r="BG11">
+        <v>0.8579</v>
+      </c>
+      <c r="BH11">
+        <v>0.85677000000000003</v>
+      </c>
+      <c r="BI11">
+        <v>0.85468</v>
+      </c>
+      <c r="BJ11">
+        <v>0.86636999999999997</v>
+      </c>
+      <c r="BK11">
+        <v>0.84794999999999998</v>
+      </c>
+      <c r="BL11">
+        <v>0.86843999999999999</v>
+      </c>
+      <c r="BM11">
+        <v>0.87463000000000002</v>
+      </c>
+      <c r="BN11">
+        <v>0.85816999999999999</v>
+      </c>
+      <c r="BO11">
+        <v>0.85684000000000005</v>
+      </c>
+      <c r="BP11">
+        <v>0.84974000000000005</v>
+      </c>
+      <c r="BQ11">
+        <v>0.84516000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="BS11">
+        <v>0.86853000000000002</v>
+      </c>
+      <c r="BT11">
+        <v>0.84177999999999997</v>
+      </c>
+      <c r="BU11">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="BV11">
+        <v>0.88710999999999995</v>
+      </c>
+      <c r="BW11">
+        <v>0.85206999999999999</v>
+      </c>
+      <c r="BX11">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="BY11">
+        <v>0.87305999999999995</v>
+      </c>
+      <c r="BZ11">
+        <v>0.85146999999999995</v>
+      </c>
+      <c r="CA11">
+        <v>0.87026999999999999</v>
+      </c>
+      <c r="CB11">
+        <v>0.85999000000000003</v>
+      </c>
+      <c r="CC11">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="CD11">
+        <v>0.86728000000000005</v>
+      </c>
+      <c r="CE11">
+        <v>0.84957000000000005</v>
+      </c>
+      <c r="CF11">
+        <v>0.87548999999999999</v>
+      </c>
+      <c r="CG11">
+        <v>0.86002999999999996</v>
+      </c>
+      <c r="CH11">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="CI11">
+        <v>0.87936000000000003</v>
+      </c>
+      <c r="CJ11">
+        <v>0.85797999999999996</v>
+      </c>
+      <c r="CK11">
+        <v>0.88737999999999995</v>
+      </c>
+      <c r="CL11">
+        <v>0.88922000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.87382000000000004</v>
+      </c>
+      <c r="CN11">
+        <v>0.871</v>
+      </c>
+      <c r="CO11">
+        <v>0.88075000000000003</v>
+      </c>
+      <c r="CP11">
+        <v>0.87333000000000005</v>
+      </c>
+      <c r="CQ11">
+        <v>0.86561999999999995</v>
+      </c>
+      <c r="CR11">
+        <v>0.89076999999999995</v>
+      </c>
+      <c r="CS11">
+        <v>0.85679000000000005</v>
+      </c>
+      <c r="CT11">
+        <v>0.89217999999999997</v>
+      </c>
+      <c r="CU11">
+        <v>0.87692999999999999</v>
+      </c>
+      <c r="CV11">
+        <v>0.88378000000000001</v>
+      </c>
+      <c r="CW11">
+        <v>0.86293069999999983</v>
       </c>
     </row>
   </sheetData>
